--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,6 +4045,98 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45205.66666666666</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:34</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/zira-fk-turan/vFJ40kMH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,6 +4137,98 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/gabala-sabail/hbHh3ixa/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4229,6 +4229,98 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabah-baku-araz-pfk/zNMm4XMh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,98 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45207.60416666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:18</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:18</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:18</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-kapaz/WlGd2Bi5/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,6 +4413,98 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:14</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:14</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>07/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:14</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-qarabag-agdam/QBF01V6B/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,190 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45219.6875</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>19/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:25</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/turan-qarabag-agdam/C8XRHjih/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45219.77083333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>4</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>19/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabail-neftci-baku/jgqJJCMu/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,6 +4689,98 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/kapaz-zira-fk/UqrNIWyn/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4781,6 +4781,98 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:48</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabah-baku-sumqayit-fk/0U7DbTjU/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4873,6 +4873,98 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45221.60416666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/gabala-araz-pfk/Mw99a9yO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4965,6 +4965,98 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45224.6875</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>12/08/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>25/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>12/08/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>25/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>12/08/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>25/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-sabah-baku/n9AWonXS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5057,6 +5057,466 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:36</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:36</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:36</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/zira-fk-sabail/bPZwFlyB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>27/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/turan-kapaz/KYzzGUL4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:46</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-gabala/fiTnDS5N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45228.64583333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>28/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-sabah-baku/G0UrE8jH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45229.66666666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>30/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>30/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>30/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/araz-pfk-qarabag-agdam/QByWGA6b/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5517,6 +5517,98 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45233.66666666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:47</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabail-turan/42d5V9Li/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,6 +5609,190 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/qarabag-agdam-kapaz/Yy19UTzb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45234.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-araz-pfk/lESjCnLT/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5793,6 +5793,98 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/gabala-neftci-baku/O6JI76Tp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5885,6 +5885,98 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45235.64583333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>04/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:17</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabah-baku-zira-fk/QBc1Wk6o/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,98 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45240.66666666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>09/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>09/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>09/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/araz-pfk-kapaz/CSaDTmj4/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6069,6 +6069,98 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:07</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:07</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-sumqayit-fk/t8iUP5kT/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6161,98 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:19</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>10/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/turan-sabah-baku/8fgMRRKG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6253,6 +6253,98 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/zira-fk-gabala/2HhQQozN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,6 +6345,98 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>11/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/qarabag-agdam-sabail/fikIS75A/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6437,6 +6437,98 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45254.70833333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>23/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>23/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:37</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>23/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:37</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabah-baku-qarabag-agdam/xp2vrm5c/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6529,6 +6529,374 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>25/11/2023 10:51</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>25/11/2023 10:48</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>23/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>25/11/2023 10:51</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabail-kapaz/K8iqs7K3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:09</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:09</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:09</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/gabala-turan/OtbzqTki/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45256.52083333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-araz-pfk/WnBlLPcp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-zira-fk/AwAhKqDj/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6897,6 +6897,98 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/araz-pfk-sabail/bajmtRZ9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6989,6 +6989,98 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45262.64583333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>01/12/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:26</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/turan-sumqayit-fk/nN7PMxZl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,1202 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>02/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>02/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>02/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/kapaz-sabah-baku/SYfiuokG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-zira-fk/bcBTLdle/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45264.6875</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/12/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/qarabag-agdam-gabala/4bIKNIJr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45268.6875</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/12/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>07/12/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>07/12/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-qarabag-agdam/8ShKrKe8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/gabala-kapaz/nJiOsvBE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>08/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>08/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>08/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/zira-fk-araz-pfk/hKAXKG31/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>09/12/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:16</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>09/12/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>09/12/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabah-baku-sabail/ttiStbQK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-turan/WA9yKzJ7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45274.52083333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>13/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>14/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>13/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>14/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>13/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>14/12/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/kapaz-sumqayit-fk/vHW2zd3l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45275.41666666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>13/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>15/12/2023 09:59</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>13/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>15/12/2023 09:59</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>13/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>15/12/2023 09:59</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sabail-gabala/0QXbyxlr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45275.5</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>15/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>14/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>15/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>14/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>15/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/araz-pfk-sabah-baku/fqeWuIuR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>15/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:09</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>15/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>15/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:09</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/turan-zira-fk/QXUAYZX0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45278.70833333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>17/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>18/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>17/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>18/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>17/12/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>18/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/qarabag-agdam-neftci-baku/nsW6ZFIf/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8277,6 +8277,98 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45282.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Gabala</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sabah Baku</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>21/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>21/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>21/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/gabala-sabah-baku/WU5AgyAQ/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/azerbaijan_premier-league_2023-2024.xlsx
+++ b/2023/azerbaijan_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8369,6 +8369,374 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45283.64583333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sumqayit</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sabail</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>22/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>22/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>22/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:21</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/sumqayit-fk-sabail/EgB5fHfK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45284.375</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Araz</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>22/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>24/12/2023 08:40</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>22/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>24/12/2023 08:40</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>22/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>24/12/2023 08:40</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/turan-araz-pfk/8dKFXgm7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45284.54166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Neftci Baku</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Kapaz</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/neftci-baku-kapaz/z3C1ecuE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>azerbaijan</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45284.64583333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Zira</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Qarabag</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:27</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>24/12/2023 15:25</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/azerbaijan/premier-league/zira-fk-qarabag-agdam/MaOJWD2D/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
